--- a/results/Results_DF.xlsx
+++ b/results/Results_DF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:PG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,2006 @@
           <t>Median_EER_Right</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_5</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_7</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_8</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_9</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_10</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_11</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_12</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_13</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_14</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_15</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_16</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_17</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_18</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_19</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_20</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_21</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_22</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_23</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_24</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_25</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_26</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_27</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_28</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_29</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_30</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_31</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_32</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_33</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_34</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_35</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_36</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_37</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_38</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_39</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_40</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_41</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_42</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_43</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_44</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_45</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_46</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_47</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_48</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_49</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_50</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_51</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_52</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_53</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_54</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_55</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_56</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_57</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_58</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_59</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_60</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_61</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_62</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_63</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_64</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_65</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_66</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_67</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_68</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_69</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_70</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_71</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_72</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_73</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_74</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_75</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_76</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_77</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_78</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_79</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_80</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_81</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_82</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_83</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_84</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_85</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_86</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_87</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_88</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_89</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_90</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_91</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_92</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_93</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_94</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_95</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_96</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_97</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_98</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_L_99</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_0</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_1</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_2</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_3</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_4</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_5</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_6</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_7</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_8</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_9</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_10</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_11</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_12</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_13</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_14</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_15</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_16</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_17</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_18</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_19</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_20</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_21</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_22</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_23</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_24</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_25</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_26</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_27</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_28</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_29</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_30</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_31</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_32</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_33</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_34</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_35</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_36</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_37</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_38</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_39</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_40</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_41</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_42</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_43</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_44</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_45</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_46</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_47</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_48</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_49</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_50</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_51</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_52</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_53</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_54</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_55</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_56</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_57</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_58</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_59</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_60</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_61</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_62</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_63</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_64</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_65</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_66</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_67</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_68</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_69</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_70</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_71</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_72</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_73</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_74</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_75</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_76</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_77</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_78</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_79</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_80</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_81</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_82</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_83</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_84</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_85</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_86</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_87</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_88</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_89</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_90</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_91</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_92</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_93</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_94</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_95</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_96</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_97</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_98</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_L_99</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_0</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_1</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_2</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_3</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_4</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_5</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_6</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_7</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_8</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_9</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_10</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_11</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_12</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_13</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_14</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_15</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_16</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_17</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_18</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_19</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_20</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_21</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_22</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_23</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_24</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_25</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_26</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_27</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_28</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_29</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_30</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_31</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_32</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_33</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_34</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_35</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_36</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_37</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_38</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_39</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_40</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_41</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_42</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_43</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_44</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_45</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_46</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_47</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_48</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_49</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_50</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_51</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_52</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_53</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_54</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_55</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_56</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_57</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_58</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_59</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_60</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_61</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_62</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_63</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_64</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_65</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_66</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_67</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_68</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_69</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_70</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_71</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_72</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_73</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_74</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_75</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_76</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_77</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_78</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_79</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_80</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_81</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_82</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_83</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_84</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_85</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_86</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_87</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_88</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_89</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_90</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_91</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_92</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_93</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_94</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_95</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_96</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_97</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_98</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>FAR_R_99</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_0</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_1</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_2</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_3</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_4</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_5</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_6</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_7</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_8</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_9</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_10</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_11</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_12</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_13</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_14</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_15</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_16</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_17</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_18</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_19</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_20</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_21</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_22</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_23</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_24</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_25</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_26</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_27</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_28</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_29</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_30</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_31</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_32</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_33</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_34</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_35</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_36</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_37</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_38</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_39</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_40</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_41</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_42</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_43</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_44</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_45</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_46</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_47</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_48</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_49</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_50</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_51</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_52</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_53</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_54</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_55</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_56</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_57</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_58</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_59</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_60</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_61</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_62</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_63</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_64</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_65</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_66</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_67</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_68</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_69</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_70</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_71</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_72</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_73</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_74</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_75</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_76</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_77</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_78</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_79</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_80</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_81</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_82</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_83</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_84</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_85</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_86</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_87</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_88</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_89</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_90</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_91</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_92</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_93</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_94</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_95</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_96</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_97</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_98</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>FRR_R_99</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -576,52 +2576,6368 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>80.25992779783394</v>
+        <v>61.37184115523466</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4851652694001495</v>
+        <v>0.4319634703196347</v>
       </c>
       <c r="J2" t="n">
-        <v>81.05727751851595</v>
+        <v>65.8703071672355</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4862451535644144</v>
+        <v>0.4784853700516351</v>
       </c>
       <c r="L2" t="n">
-        <v>35.74007220216607</v>
+        <v>61.37184115523466</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4296160877513711</v>
+        <v>0.4319634703196347</v>
       </c>
       <c r="N2" t="n">
-        <v>52.2184300341297</v>
+        <v>65.8703071672355</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3875536480686695</v>
+        <v>0.4784853700516351</v>
       </c>
       <c r="P2" t="n">
-        <v>99.27797833935018</v>
+        <v>61.37184115523466</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4995421245421245</v>
+        <v>0.4319634703196347</v>
       </c>
       <c r="R2" t="n">
-        <v>99.31740614334471</v>
+        <v>65.8703071672355</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4978146853146853</v>
+        <v>0.4784853700516351</v>
       </c>
       <c r="T2" t="n">
-        <v>82.31046931407943</v>
+        <v>61.37184115523466</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4940693430656934</v>
+        <v>0.4319634703196347</v>
       </c>
       <c r="V2" t="n">
-        <v>82.25255972696246</v>
+        <v>65.8703071672355</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4944110060189166</v>
+        <v>0.4784853700516351</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.9972602739726028</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.9954337899543378</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.9908675799086758</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.9579908675799087</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.8639269406392694</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0.9991394148020654</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>0.9965576592082617</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>0.9948364888123924</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>0.9896729776247849</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>0.9569707401032702</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>corr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>56.90721649484536</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4050561797752809</v>
+      </c>
+      <c r="J3" t="n">
+        <v>53.80116959064327</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4269067796610169</v>
+      </c>
+      <c r="L3" t="n">
+        <v>56.90721649484536</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4050561797752809</v>
+      </c>
+      <c r="N3" t="n">
+        <v>53.80116959064327</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4269067796610169</v>
+      </c>
+      <c r="P3" t="n">
+        <v>56.90721649484536</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.4050561797752809</v>
+      </c>
+      <c r="R3" t="n">
+        <v>53.80116959064327</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.4269067796610169</v>
+      </c>
+      <c r="T3" t="n">
+        <v>56.90721649484536</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.4050561797752809</v>
+      </c>
+      <c r="V3" t="n">
+        <v>53.80116959064327</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.4269067796610169</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.998876404494382</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.9977528089887641</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.9921348314606742</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.9730337078651685</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.9269662921348315</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.8101123595505618</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="II3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>0.9989406779661016</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>0.996822033898305</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>0.9936440677966102</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>0.9565677966101694</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>0.8538135593220338</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>corr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>56.93641618497109</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4102189781021898</v>
+      </c>
+      <c r="J4" t="n">
+        <v>52.52387448840382</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4132231404958678</v>
+      </c>
+      <c r="L4" t="n">
+        <v>56.93641618497109</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4102189781021898</v>
+      </c>
+      <c r="N4" t="n">
+        <v>52.52387448840382</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.4132231404958678</v>
+      </c>
+      <c r="P4" t="n">
+        <v>56.93641618497109</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4102189781021898</v>
+      </c>
+      <c r="R4" t="n">
+        <v>52.52387448840382</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.4132231404958678</v>
+      </c>
+      <c r="T4" t="n">
+        <v>56.93641618497109</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.4102189781021898</v>
+      </c>
+      <c r="V4" t="n">
+        <v>52.52387448840382</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.4132231404958678</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.9985401459854014</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.9970802919708029</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.9897810218978103</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.9722627737226277</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.9328467153284672</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.8204379562043795</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>0.9986225895316805</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>0.9972451790633609</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>0.9944903581267218</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>0.9917355371900827</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>0.987603305785124</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>0.9752066115702479</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>0.8264462809917356</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>corr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37.18411552346571</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.308675799086758</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27.30375426621161</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3855421686746988</v>
+      </c>
+      <c r="L5" t="n">
+        <v>37.18411552346571</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.308675799086758</v>
+      </c>
+      <c r="N5" t="n">
+        <v>27.30375426621161</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3855421686746988</v>
+      </c>
+      <c r="P5" t="n">
+        <v>37.18411552346571</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.308675799086758</v>
+      </c>
+      <c r="R5" t="n">
+        <v>27.30375426621161</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.3855421686746988</v>
+      </c>
+      <c r="T5" t="n">
+        <v>37.18411552346571</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.308675799086758</v>
+      </c>
+      <c r="V5" t="n">
+        <v>27.30375426621161</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3855421686746988</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.9990867579908675</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.9981735159817352</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.9963470319634703</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.9963470319634703</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.9917808219178083</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.9753424657534246</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.9488584474885845</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.8922374429223744</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0.7863013698630137</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0.617351598173516</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="II5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB5" t="n">
+        <v>0.9991394148020654</v>
+      </c>
+      <c r="LC5" t="n">
+        <v>0.9982788296041308</v>
+      </c>
+      <c r="LD5" t="n">
+        <v>0.9965576592082617</v>
+      </c>
+      <c r="LE5" t="n">
+        <v>0.9948364888123924</v>
+      </c>
+      <c r="LF5" t="n">
+        <v>0.9922547332185886</v>
+      </c>
+      <c r="LG5" t="n">
+        <v>0.9836488812392427</v>
+      </c>
+      <c r="LH5" t="n">
+        <v>0.9629948364888123</v>
+      </c>
+      <c r="LI5" t="n">
+        <v>0.9036144578313253</v>
+      </c>
+      <c r="LJ5" t="n">
+        <v>0.7710843373493976</v>
+      </c>
+      <c r="LK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>corr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>39.58762886597938</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2932584269662921</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.53606237816764</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3850635593220339</v>
+      </c>
+      <c r="L6" t="n">
+        <v>39.58762886597938</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2932584269662921</v>
+      </c>
+      <c r="N6" t="n">
+        <v>25.53606237816764</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3850635593220339</v>
+      </c>
+      <c r="P6" t="n">
+        <v>39.58762886597938</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2932584269662921</v>
+      </c>
+      <c r="R6" t="n">
+        <v>25.53606237816764</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.3850635593220339</v>
+      </c>
+      <c r="T6" t="n">
+        <v>39.58762886597938</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2932584269662921</v>
+      </c>
+      <c r="V6" t="n">
+        <v>25.53606237816764</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.3850635593220339</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0.998876404494382</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0.9977528089887641</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0.9943820224719101</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0.9932584269662922</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.9730337078651685</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.9404494382022472</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.8741573033707866</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0.7606741573033707</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.5865168539325842</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="II6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB6" t="n">
+        <v>0.9989406779661016</v>
+      </c>
+      <c r="LC6" t="n">
+        <v>0.9978813559322034</v>
+      </c>
+      <c r="LD6" t="n">
+        <v>0.9957627118644068</v>
+      </c>
+      <c r="LE6" t="n">
+        <v>0.9936440677966102</v>
+      </c>
+      <c r="LF6" t="n">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="LG6" t="n">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="LH6" t="n">
+        <v>0.965042372881356</v>
+      </c>
+      <c r="LI6" t="n">
+        <v>0.9036016949152542</v>
+      </c>
+      <c r="LJ6" t="n">
+        <v>0.7701271186440678</v>
+      </c>
+      <c r="LK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results_DF.xlsx
+++ b/results/Results_DF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PG4"/>
+  <dimension ref="A1:PG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2573,55 +2573,55 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>98.95833333333333</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3055002912191371</v>
+        <v>0.2776407693384201</v>
       </c>
       <c r="J2" t="n">
-        <v>98.95865982911936</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3073443536437137</v>
+        <v>0.2707586358251031</v>
       </c>
       <c r="L2" t="n">
-        <v>98.55595667870037</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01636363636363636</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="N2" t="n">
-        <v>97.61092150170649</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0240343347639485</v>
+        <v>0.00686695278969957</v>
       </c>
       <c r="P2" t="n">
-        <v>99.63898916967509</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5471135375593974</v>
+        <v>0.6279545454545454</v>
       </c>
       <c r="R2" t="n">
-        <v>99.31740614334471</v>
+        <v>50</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6172210300429184</v>
+        <v>0.5747365841705464</v>
       </c>
       <c r="T2" t="n">
-        <v>98.91696750902527</v>
+        <v>50</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3090847348852759</v>
+        <v>0.2570711678832117</v>
       </c>
       <c r="V2" t="n">
-        <v>98.97610921501706</v>
+        <v>50</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3196105675091385</v>
+        <v>0.2647245288983469</v>
       </c>
       <c r="X2" t="n">
         <v>1</v>
@@ -2645,280 +2645,280 @@
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0.9999905303030303</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>0.9999905303030303</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.9999810347089859</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9999905303030303</v>
+        <v>0.9999715650120162</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.9999810260451228</v>
+        <v>0.9999431300240325</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.9999810260451228</v>
+        <v>0.9999051300356765</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.9999810260451228</v>
+        <v>0.999867259817532</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.9999715563481532</v>
+        <v>0.9998103983640844</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9999431472572441</v>
+        <v>0.9997440585344083</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.9999051385414663</v>
+        <v>0.9996683783051786</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.9998861297724576</v>
+        <v>0.9994978457382965</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.9998481817202824</v>
+        <v>0.9993175837457627</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.9998197726293734</v>
+        <v>0.9991374342739726</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.9997818244664253</v>
+        <v>0.9989289882334417</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.9996586056023814</v>
+        <v>0.9986541761811908</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9995351790854573</v>
+        <v>0.9983317731318851</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993930550739897</v>
+        <v>0.9979241165821824</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.9991750954943569</v>
+        <v>0.9975351141607066</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.9988717264634913</v>
+        <v>0.9968524638821199</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.9984354609834311</v>
+        <v>0.9961027124345959</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.9980560570685006</v>
+        <v>0.9951547198374988</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.9976005925133782</v>
+        <v>0.9941115878058668</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.997088222301425</v>
+        <v>0.992897586167795</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.9965571121079341</v>
+        <v>0.9913703979780552</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.9958743222118677</v>
+        <v>0.989776742961062</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.9951630802042973</v>
+        <v>0.988192555325112</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.9944132661526125</v>
+        <v>0.9861157896023446</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.9934937847340543</v>
+        <v>0.9837256564267262</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.9925077634751035</v>
+        <v>0.981174287814652</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.9913032998168663</v>
+        <v>0.9783755913574774</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.990079351599409</v>
+        <v>0.9752545778376548</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9884860489740296</v>
+        <v>0.9716790406926455</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.9868832764240197</v>
+        <v>0.9677890327999888</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.9851468459939258</v>
+        <v>0.9637481050310074</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.9832683513314642</v>
+        <v>0.9592308099191355</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.9811997092788521</v>
+        <v>0.9547702666235537</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.9791600840960871</v>
+        <v>0.9491908665507847</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.9767020693917893</v>
+        <v>0.9437724815362857</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.9739977205169567</v>
+        <v>0.9375460117618361</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.971103856409068</v>
+        <v>0.9309502945746262</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.9677446777828808</v>
+        <v>0.924012143082337</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.964518154877165</v>
+        <v>0.9164174275145287</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.9607799196680246</v>
+        <v>0.9084995378393894</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.9569363147462234</v>
+        <v>0.9001651921045185</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.9527700856308265</v>
+        <v>0.8910706875054374</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.9480229279722522</v>
+        <v>0.8812141007726066</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.9429437436822995</v>
+        <v>0.8713961338957631</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.9369642097621212</v>
+        <v>0.8603924258562178</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.9316491411629081</v>
+        <v>0.8489135170620282</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9258398205268984</v>
+        <v>0.8367188762694887</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.9196216665236623</v>
+        <v>0.8234232001104403</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.912739076055883</v>
+        <v>0.8100243204741435</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.9054207930551418</v>
+        <v>0.7959689713494672</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.897597613785431</v>
+        <v>0.7812502547001411</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.8896424736245345</v>
+        <v>0.7654952783158211</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.8807177316132891</v>
+        <v>0.7484439210774201</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.8715470696338484</v>
+        <v>0.7311279892776836</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.8620335998330813</v>
+        <v>0.7127001905868872</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.8521028562333449</v>
+        <v>0.6933607596424126</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.8408124941358067</v>
+        <v>0.6733571849574175</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.8289059388465391</v>
+        <v>0.6524100889079109</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.8165418895923972</v>
+        <v>0.6314440231580773</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.8031997434813158</v>
+        <v>0.6090889390300503</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.7895065881571203</v>
+        <v>0.5864865976427326</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.7750226247010602</v>
+        <v>0.562563577549215</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.7596379869641775</v>
+        <v>0.5384604048781604</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.7435301979582656</v>
+        <v>0.5130841220054195</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.7261586086251518</v>
+        <v>0.4873260882346063</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.7087104258404856</v>
+        <v>0.4608161759061564</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.690920738424455</v>
+        <v>0.4336118177625601</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.6717363319139902</v>
+        <v>0.4067249450083194</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.6511034539816686</v>
+        <v>0.3786467512369313</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.6300724755004624</v>
+        <v>0.35022590977633</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.6066907708031045</v>
+        <v>0.3217845103350503</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.5832353436635735</v>
+        <v>0.2937795369433324</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.5578050066335057</v>
+        <v>0.2647192061740842</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.5321624962132817</v>
+        <v>0.2366941819811741</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.5041326731233126</v>
+        <v>0.2086494736870614</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.4744074215190293</v>
+        <v>0.1818660753755841</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.4436913791189474</v>
+        <v>0.1558048670005553</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.4122598775879072</v>
+        <v>0.1298665005264365</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.378634851016429</v>
+        <v>0.1064453710666368</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.3439327254055608</v>
+        <v>0.0850606549194351</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.3075188285050817</v>
+        <v>0.06521441440630364</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.2696879992772278</v>
+        <v>0.04843815800335022</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.2314903233427442</v>
+        <v>0.03446621447348221</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.1927808722918136</v>
+        <v>0.02198513461992968</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.1526255171217306</v>
+        <v>0.01341122676593853</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.1129823707385213</v>
+        <v>0.00635908728027659</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.07482989578168053</v>
+        <v>0.002405166595985145</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.03955295900608582</v>
+        <v>0.0006276061450808186</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0119896451293806</v>
+        <v>5.697381698284028e-05</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -2960,25 +2960,25 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
         <v>0.001302083333333333</v>
@@ -2993,232 +2993,232 @@
         <v>0.001302083333333333</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.002170138888888889</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00390625</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00390625</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.00390625</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.00390625</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00390625</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.00390625</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.00390625</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.004774305555555555</v>
+        <v>0.001302083333333333</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.004774305555555555</v>
+        <v>0.002103365384615385</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.004774305555555555</v>
+        <v>0.004099893162393163</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004774305555555555</v>
+        <v>0.004099893162393163</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.005931712962962962</v>
+        <v>0.005836004273504274</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00708912037037037</v>
+        <v>0.009163550569800569</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00708912037037037</v>
+        <v>0.01003160612535612</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00708912037037037</v>
+        <v>0.01003160612535612</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.007957175925925927</v>
+        <v>0.01133368945868946</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.01099537037037037</v>
+        <v>0.0143051103988604</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.01099537037037037</v>
+        <v>0.01517316595441595</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.01099537037037037</v>
+        <v>0.01517316595441595</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.01173941798941799</v>
+        <v>0.01777733262108262</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01173941798941799</v>
+        <v>0.01777733262108262</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.01248346560846561</v>
+        <v>0.01907941595441595</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01248346560846561</v>
+        <v>0.02107594373219373</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01809689153439153</v>
+        <v>0.02268804690679691</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.01809689153439153</v>
+        <v>0.0236350166037666</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02260251322751323</v>
+        <v>0.02737216487216487</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02520667989417989</v>
+        <v>0.03045996249121249</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02669477513227513</v>
+        <v>0.0394823347948348</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.02799685846560846</v>
+        <v>0.04912846123783624</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.03200994607244607</v>
+        <v>0.05267302142302141</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.03266098773911274</v>
+        <v>0.05471915237540236</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.03530649038461538</v>
+        <v>0.06090169957357457</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.04272629858567359</v>
+        <v>0.06620097206034706</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.04551647715710216</v>
+        <v>0.07448030846468347</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.04877724994912495</v>
+        <v>0.07609241163928664</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.04981891661579161</v>
+        <v>0.08914504187941689</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.05228953627391127</v>
+        <v>0.09587247243497243</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.05603457595645094</v>
+        <v>0.1087411142098642</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.05808070690883189</v>
+        <v>0.1181450493950494</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.06294801841676841</v>
+        <v>0.1310418747918748</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.06844570360195358</v>
+        <v>0.1426466906935657</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.07474530677655676</v>
+        <v>0.1553744143587893</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.08055301180301179</v>
+        <v>0.1797090207246458</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.08619368189680687</v>
+        <v>0.1893496983340734</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.0947502295158545</v>
+        <v>0.2037711854118105</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.1083853935416435</v>
+        <v>0.2163818964600215</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.119739750989751</v>
+        <v>0.2320880363849114</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.1293793012543012</v>
+        <v>0.2476303644272395</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.1352800122331372</v>
+        <v>0.2679818734506235</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.1432413217569467</v>
+        <v>0.2885877143689644</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.1555316789691789</v>
+        <v>0.3094762153355903</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.16752738002738</v>
+        <v>0.3342120408526658</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.1855062038655788</v>
+        <v>0.3590120527620528</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.2068504123191623</v>
+        <v>0.3840019933769934</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.2256669256669257</v>
+        <v>0.4081409331409332</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.2461344355875605</v>
+        <v>0.4377465127465127</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.2738666426166426</v>
+        <v>0.4633471274096273</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.3005601025132276</v>
+        <v>0.491246326011951</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.3375632469382469</v>
+        <v>0.5246118320337069</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.3796546335608834</v>
+        <v>0.549487824097199</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.4427846025502277</v>
+        <v>0.589576251295001</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.4844611985236986</v>
+        <v>0.6302508544696043</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.5386025866494617</v>
+        <v>0.6699146484302733</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.5803105892949644</v>
+        <v>0.7107339419839421</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.6538575429200428</v>
+        <v>0.7230727316664819</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.7191576507982754</v>
+        <v>0.7417201866420617</v>
       </c>
       <c r="HO2" t="n">
         <v>1</v>
@@ -3254,271 +3254,271 @@
         <v>1</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1</v>
+        <v>0.9999910586552218</v>
       </c>
       <c r="IA2" t="n">
-        <v>1</v>
+        <v>0.9999910586552218</v>
       </c>
       <c r="IB2" t="n">
-        <v>1</v>
+        <v>0.9999820865047768</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9999910586552218</v>
+        <v>0.9999731451599986</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9999821173104436</v>
+        <v>0.9999194816621779</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.999964234620887</v>
+        <v>0.9998926191406089</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.9999374105865523</v>
+        <v>0.9998209803765485</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.9998926422380148</v>
+        <v>0.9997583755339498</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.9998210266245421</v>
+        <v>0.9995972772863625</v>
       </c>
       <c r="II2" t="n">
-        <v>0.9996957243889449</v>
+        <v>0.9994181087988206</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.9995883589852269</v>
+        <v>0.9990779344957866</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.9994810243606533</v>
+        <v>0.9987646174017191</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.9992932099384002</v>
+        <v>0.9984154579272039</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.9991411993560403</v>
+        <v>0.9978424587348562</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.9988727045268974</v>
+        <v>0.9972871225856658</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.9985864038890644</v>
+        <v>0.9964990627990241</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.998264353687612</v>
+        <v>0.9956933465236139</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.9978796287527533</v>
+        <v>0.9947980791320635</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.9974680641149849</v>
+        <v>0.9938761535725638</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.9970474813695341</v>
+        <v>0.9926221474419216</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.9966001673260827</v>
+        <v>0.9910275135991741</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.9960545062385107</v>
+        <v>0.9895768801834834</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.9953833502666445</v>
+        <v>0.9880004791584559</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.9946045192912488</v>
+        <v>0.9861459251607515</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.9937182773298464</v>
+        <v>0.9839152118149622</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.9927783791352804</v>
+        <v>0.9816937227267443</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.9916687811992859</v>
+        <v>0.979175743628674</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.9905499169909091</v>
+        <v>0.9764334200714756</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.9892071105672838</v>
+        <v>0.9733675339162468</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9877384541046156</v>
+        <v>0.9697104004611351</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.9865298769664772</v>
+        <v>0.9664299426287998</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9849709652605388</v>
+        <v>0.9621088124703636</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.9830363704614583</v>
+        <v>0.9574473918620847</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.981021011672857</v>
+        <v>0.9527129291716431</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.978843824950792</v>
+        <v>0.9471547653113964</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.9763081408762395</v>
+        <v>0.9407431405466616</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.9735753444844683</v>
+        <v>0.934180642518986</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.9708420833038104</v>
+        <v>0.9270424104767052</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.967795512594627</v>
+        <v>0.9195459726891623</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.9643178481654709</v>
+        <v>0.9117082581172475</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.9609208631283348</v>
+        <v>0.9032776869739964</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.9568066126197824</v>
+        <v>0.894085210900148</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9524210944406439</v>
+        <v>0.8844092708089634</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.9481095014305914</v>
+        <v>0.8737535887605525</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.9430788559156569</v>
+        <v>0.8623447018684681</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.9376366456505171</v>
+        <v>0.8501807514975516</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.9313968761649565</v>
+        <v>0.8373085362014794</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.925576941051831</v>
+        <v>0.8242572861718895</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9190210822153683</v>
+        <v>0.8103779785501873</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.911747458232433</v>
+        <v>0.795914709500821</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.9039356071420418</v>
+        <v>0.7801876546380714</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.8955609565267891</v>
+        <v>0.7638593984338727</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.8871767008765868</v>
+        <v>0.7468058623893067</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.8779038051850602</v>
+        <v>0.7295873899650199</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.867678827364912</v>
+        <v>0.7114270633911901</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.857041937524364</v>
+        <v>0.6924035098299489</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.8457482607834198</v>
+        <v>0.672356554854785</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.8341137727198222</v>
+        <v>0.6509277062019156</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.8214637952071359</v>
+        <v>0.6296677319825469</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.8084537541168842</v>
+        <v>0.6067462071611619</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.7940909902531365</v>
+        <v>0.584390200306767</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.7790737598113532</v>
+        <v>0.5588652131945355</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.7639484942267445</v>
+        <v>0.5338701138161327</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.7477086780391456</v>
+        <v>0.5087207081815995</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.7307701737306549</v>
+        <v>0.4830490915867559</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.7133930833784103</v>
+        <v>0.4569829426140497</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.6943009703074239</v>
+        <v>0.4304507365565045</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.6747943136846373</v>
+        <v>0.4026875328362595</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.6535701989110242</v>
+        <v>0.3747514645421177</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.6317209516081812</v>
+        <v>0.3475913941406854</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.6083013497029554</v>
+        <v>0.3197771687875737</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.5833262129881914</v>
+        <v>0.2920197993721777</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.5574792944666715</v>
+        <v>0.2630772573396975</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.530611427457804</v>
+        <v>0.2335665464051925</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.5021191752217571</v>
+        <v>0.2066254967194889</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.4721721610346568</v>
+        <v>0.1793225062632522</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.4387741970224618</v>
+        <v>0.1541014912869914</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.4049981643244486</v>
+        <v>0.1291794772360103</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.3707179053285883</v>
+        <v>0.1062746601906601</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.334620792644156</v>
+        <v>0.08471015833556478</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.297436214193422</v>
+        <v>0.0655061049383604</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.2599360167157346</v>
+        <v>0.04963939908181442</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.2211884688216934</v>
+        <v>0.03542783305066697</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.181510683538393</v>
+        <v>0.02295724667785482</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.1409507117082494</v>
+        <v>0.01423054264154239</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.1029320170793939</v>
+        <v>0.007191339663139819</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.0674504289707378</v>
+        <v>0.003025584242091306</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.0347529311524821</v>
+        <v>0.0007628922133971983</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.01015814831852395</v>
+        <v>6.292141980989001e-05</v>
       </c>
       <c r="LK2" t="n">
         <v>0</v>
@@ -3584,2802 +3584,244 @@
         <v>0</v>
       </c>
       <c r="MF2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MG2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MH2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MI2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MK2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="ML2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MM2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MN2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MO2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MP2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MR2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MS2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MT2" t="n">
-        <v>0</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="MU2" t="n">
-        <v>0</v>
+        <v>0.002821180555555556</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0.002821180555555556</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0.002821180555555556</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0.002821180555555556</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0.002821180555555556</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.001302083333333333</v>
+        <v>0.002821180555555556</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.00234375</v>
+        <v>0.005164930555555555</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.00234375</v>
+        <v>0.005815972222222222</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.00234375</v>
+        <v>0.006684027777777777</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.00234375</v>
+        <v>0.00982556216931217</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.004803240740740741</v>
+        <v>0.01261574074074074</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.005454282407407408</v>
+        <v>0.01391782407407407</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.005454282407407408</v>
+        <v>0.01461226851851852</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.005454282407407408</v>
+        <v>0.01606459223646724</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.008244460978835978</v>
+        <v>0.01606459223646724</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.008244460978835978</v>
+        <v>0.01736667556980057</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.01019758597883598</v>
+        <v>0.02321815915565915</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.01089203042328042</v>
+        <v>0.02720294751544751</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.01176008597883598</v>
+        <v>0.03027007714507715</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.01429747914122914</v>
+        <v>0.03027007714507715</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.01545488654863655</v>
+        <v>0.03523490398490398</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.01545488654863655</v>
+        <v>0.0390385656010656</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.01809456457893958</v>
+        <v>0.04472989394864395</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.01970666775354275</v>
+        <v>0.04967781061531062</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.02050794980482481</v>
+        <v>0.0534505136067636</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.0234593386937137</v>
+        <v>0.06010327924390424</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.02560610685610686</v>
+        <v>0.06311810296185297</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02760263463388464</v>
+        <v>0.07058762996262996</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.02921473780848781</v>
+        <v>0.07353901885151884</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.03051682114182115</v>
+        <v>0.0790740654021904</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.0329473766973767</v>
+        <v>0.0877121287277537</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.03942653122340623</v>
+        <v>0.09392323532948531</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.04266727196414696</v>
+        <v>0.0994209205146705</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.04566206363081363</v>
+        <v>0.1036061883718133</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.04770819458319458</v>
+        <v>0.1111270095645095</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.0530309534215784</v>
+        <v>0.1175506206756207</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.05834612436174933</v>
+        <v>0.1280862655862656</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.06324274683649679</v>
+        <v>0.136049005970881</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.06832087183649679</v>
+        <v>0.1425573558386058</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.07674657518407516</v>
+        <v>0.1536740314084064</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.08695529008029006</v>
+        <v>0.1739935267279017</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.09529313279313278</v>
+        <v>0.1939719568625818</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.1015141976079476</v>
+        <v>0.2149393719706219</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.1108957653138688</v>
+        <v>0.2266390931665715</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.1226449969849754</v>
+        <v>0.2412699110436178</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.1404863570138355</v>
+        <v>0.2569346716302534</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.1479482961163996</v>
+        <v>0.2741808369232937</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.1547825642787928</v>
+        <v>0.2927694736019089</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.1732640394008929</v>
+        <v>0.311179246699182</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.1986213269887838</v>
+        <v>0.3313912684737037</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.2116465685296504</v>
+        <v>0.349610375755311</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.2265734818940638</v>
+        <v>0.3647403472565109</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.2471974879167766</v>
+        <v>0.3918995740251127</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.2672319239668376</v>
+        <v>0.4138646086113759</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.2891851503381674</v>
+        <v>0.4388998403815214</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.3196252806301296</v>
+        <v>0.4624682808411257</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.3454226603337594</v>
+        <v>0.492701731238908</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.3718327325412454</v>
+        <v>0.5323260367306702</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.4169528154037852</v>
+        <v>0.5757334116035625</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.4618000977510676</v>
+        <v>0.5991592539006332</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.5079078069918589</v>
+        <v>0.6401829337847658</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.5623412422307896</v>
+        <v>0.6706784485071124</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.6344291319910933</v>
+        <v>0.7059145650605781</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.7078305300422757</v>
+        <v>0.7276487022715471</v>
       </c>
       <c r="PG2" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>corr</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>z-score</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MDIST</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H3" t="n">
-        <v>98.95833333333333</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>98.95865982911936</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>98.55595667870037</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>97.61092150170649</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>99.63898916967509</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>99.31740614334471</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>98.91696750902527</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>98.97610921501706</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="OZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="PA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="PB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="PC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="PD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="PE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="PF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="PG3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>corr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>z-score</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>RDIST</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H4" t="n">
-        <v>98.95833333333333</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>98.95865982911936</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>98.55595667870037</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>97.61092150170649</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>99.63898916967509</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>99.31740614334471</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>98.91696750902527</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>98.97610921501706</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="II4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PG4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results_DF.xlsx
+++ b/results/Results_DF.xlsx
@@ -2576,49 +2576,49 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>70.2482638888889</v>
       </c>
       <c r="I2" t="n">
         <v>0.2776407693384201</v>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>69.69481646825398</v>
       </c>
       <c r="K2" t="n">
         <v>0.2707586358251031</v>
       </c>
       <c r="L2" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M2" t="n">
         <v>0.07932692307692307</v>
       </c>
       <c r="N2" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O2" t="n">
         <v>0.00686695278969957</v>
       </c>
       <c r="P2" t="n">
-        <v>50</v>
+        <v>96.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0.6279545454545454</v>
       </c>
       <c r="R2" t="n">
-        <v>50</v>
+        <v>99.5</v>
       </c>
       <c r="S2" t="n">
         <v>0.5747365841705464</v>
       </c>
       <c r="T2" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="U2" t="n">
         <v>0.2570711678832117</v>
       </c>
       <c r="V2" t="n">
-        <v>50</v>
+        <v>69.33333333333333</v>
       </c>
       <c r="W2" t="n">
         <v>0.2647245288983469</v>
